--- a/GEO/C086_Kinkel.GEO_metadata.xlsx
+++ b/GEO/C086_Kinkel.GEO_metadata.xlsx
@@ -2182,7 +2182,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="193">
   <si>
     <t xml:space="preserve"># High-throughput sequencing metadata template. (Version: April 28, 2020)</t>
   </si>
@@ -2541,6 +2541,27 @@
     <t xml:space="preserve">reads were aligned using Rsubread 2.4.2</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">All code used to perform data processing and analysis of the RNA-seq data are available from </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">https://github.com/WEHISCORE/C086_Kinkel</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">genome build</t>
   </si>
   <si>
@@ -3148,7 +3169,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -3204,6 +3225,13 @@
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
@@ -3273,7 +3301,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3356,6 +3384,10 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
@@ -3467,8 +3499,8 @@
   </sheetPr>
   <dimension ref="A1:L71"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B56" activeCellId="0" sqref="B56"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B47" activeCellId="0" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3859,9 +3891,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="46.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="8" t="s">
         <v>45</v>
+      </c>
+      <c r="B47" s="21" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3880,10 +3915,10 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B50" s="20" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C50" s="20"/>
       <c r="J50" s="20"/>
@@ -3891,10 +3926,10 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B51" s="20" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C51" s="20"/>
       <c r="J51" s="20"/>
@@ -3902,10 +3937,10 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B52" s="20" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C52" s="20"/>
       <c r="J52" s="20"/>
@@ -3913,10 +3948,10 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B53" s="20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C53" s="20"/>
       <c r="J53" s="20"/>
@@ -3931,23 +3966,23 @@
     </row>
     <row r="55" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="56" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="21" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="57" s="22" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="22" t="s">
+      <c r="A56" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="B57" s="22" t="s">
+    </row>
+    <row r="57" s="23" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="C57" s="23" t="s">
+      <c r="B57" s="23" t="s">
         <v>58</v>
+      </c>
+      <c r="C57" s="24" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="58" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3955,10 +3990,10 @@
         <v>13</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="59" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3966,10 +4001,10 @@
         <v>14</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="60" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3977,10 +4012,10 @@
         <v>15</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="61" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3988,48 +4023,48 @@
     </row>
     <row r="62" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="12" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="63" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="D63" s="21"/>
-    </row>
-    <row r="64" s="23" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="B64" s="22" t="s">
+      <c r="A63" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="D63" s="22"/>
+    </row>
+    <row r="64" s="24" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="C64" s="23" t="s">
+      <c r="B64" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="D64" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="E64" s="22" t="s">
+      <c r="C64" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="D64" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="F64" s="22"/>
+      <c r="E64" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="F64" s="23"/>
     </row>
     <row r="65" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="10" t="s">
         <v>32</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D65" s="10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E65" s="10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="66" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4037,35 +4072,35 @@
         <v>33</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C66" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D66" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="E66" s="10" t="s">
         <v>71</v>
-      </c>
-      <c r="D66" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="E66" s="10" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="67" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="68" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="12" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="69" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="21" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="70" s="22" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="22" t="s">
+      <c r="A69" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="B70" s="22" t="s">
+    </row>
+    <row r="70" s="23" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="23" t="s">
         <v>75</v>
+      </c>
+      <c r="B70" s="23" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4080,6 +4115,9 @@
   <mergeCells count="1">
     <mergeCell ref="A23:I23"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B47" r:id="rId2" display="https://github.com/WEHISCORE/C086_Kinkel"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -4087,7 +4125,7 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -4112,7 +4150,7 @@
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4188,7 +4226,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C9" s="9"/>
       <c r="J9" s="9"/>
@@ -4200,7 +4238,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C10" s="9"/>
       <c r="J10" s="9"/>
@@ -4212,7 +4250,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C11" s="9"/>
       <c r="J11" s="9"/>
@@ -4224,7 +4262,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C12" s="9"/>
       <c r="J12" s="7"/>
@@ -4236,7 +4274,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C13" s="9"/>
       <c r="J13" s="7"/>
@@ -4308,19 +4346,19 @@
         <v>22</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F20" s="15" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G20" s="15" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H20" s="15" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I20" s="15" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J20" s="15" t="s">
         <v>24</v>
@@ -4343,154 +4381,154 @@
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>30</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F21" s="17" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="N21" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O21" s="7"/>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>30</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F22" s="17" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N22" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O22" s="7"/>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>30</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F23" s="17" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="N23" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O23" s="7"/>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>30</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4511,7 +4549,7 @@
         <v>36</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C28" s="20"/>
       <c r="J28" s="20"/>
@@ -4523,7 +4561,7 @@
         <v>37</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C29" s="20"/>
       <c r="J29" s="20"/>
@@ -4535,7 +4573,7 @@
         <v>38</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C30" s="20"/>
       <c r="J30" s="20"/>
@@ -4547,7 +4585,7 @@
         <v>39</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C31" s="20"/>
       <c r="J31" s="20"/>
@@ -4559,7 +4597,7 @@
         <v>40</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4585,7 +4623,7 @@
         <v>45</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4593,7 +4631,7 @@
         <v>45</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4601,7 +4639,7 @@
         <v>45</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4609,7 +4647,7 @@
         <v>45</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4624,10 +4662,10 @@
     </row>
     <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B42" s="20" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C42" s="20"/>
       <c r="J42" s="20"/>
@@ -4636,10 +4674,10 @@
     </row>
     <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B43" s="20" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C43" s="20"/>
       <c r="J43" s="20"/>
@@ -4648,10 +4686,10 @@
     </row>
     <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B44" s="20" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C44" s="20"/>
       <c r="J44" s="20"/>
@@ -4668,100 +4706,100 @@
     </row>
     <row r="46" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="47" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="21" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="48" s="22" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="22" t="s">
+      <c r="A47" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="B48" s="22" t="s">
+    </row>
+    <row r="48" s="23" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="C48" s="23" t="s">
+      <c r="B48" s="23" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="49" s="24" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C48" s="24" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="49" s="25" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C49" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="50" s="25" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B50" s="10" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="50" s="24" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B50" s="10" t="s">
-        <v>126</v>
-      </c>
       <c r="C50" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="51" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="52" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="53" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="54" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="55" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B55" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="C55" s="1" t="s">
         <v>130</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="56" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4773,119 +4811,119 @@
     </row>
     <row r="58" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="12" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="59" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="D59" s="21"/>
-    </row>
-    <row r="60" s="23" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="B60" s="22" t="s">
+      <c r="A59" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="D59" s="22"/>
+    </row>
+    <row r="60" s="24" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="C60" s="23" t="s">
+      <c r="B60" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="D60" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="E60" s="22" t="s">
+      <c r="C60" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="D60" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="F60" s="22"/>
+      <c r="E60" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="F60" s="23"/>
     </row>
     <row r="61" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E61" s="10" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="62" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C62" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E62" s="10" t="s">
         <v>137</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="E62" s="10" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="63" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E63" s="10" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="64" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="10" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E64" s="10" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="65" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="66" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="67" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="12" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="68" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="21" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="69" s="22" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="22" t="s">
+      <c r="A68" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="B69" s="22" t="s">
+    </row>
+    <row r="69" s="23" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="23" t="s">
         <v>75</v>
+      </c>
+      <c r="B69" s="23" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -4924,7 +4962,7 @@
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4993,7 +5031,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C9" s="9"/>
       <c r="J9" s="9"/>
@@ -5004,7 +5042,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C10" s="9"/>
       <c r="J10" s="9"/>
@@ -5015,7 +5053,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C11" s="9"/>
       <c r="J11" s="9"/>
@@ -5026,7 +5064,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C12" s="9"/>
       <c r="J12" s="9"/>
@@ -5037,7 +5075,7 @@
         <v>8</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C13" s="9"/>
       <c r="J13" s="9"/>
@@ -5048,7 +5086,7 @@
         <v>9</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C14" s="9"/>
       <c r="J14" s="9"/>
@@ -5059,7 +5097,7 @@
         <v>10</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C15" s="9"/>
       <c r="J15" s="7"/>
@@ -5070,7 +5108,7 @@
         <v>10</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C16" s="9"/>
       <c r="J16" s="7"/>
@@ -5081,7 +5119,7 @@
         <v>12</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C17" s="9"/>
       <c r="J17" s="7"/>
@@ -5140,22 +5178,22 @@
         <v>22</v>
       </c>
       <c r="E23" s="15" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F23" s="15" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G23" s="15" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H23" s="15" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="I23" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="J23" s="15" t="s">
         <v>86</v>
-      </c>
-      <c r="J23" s="15" t="s">
-        <v>85</v>
       </c>
       <c r="K23" s="15" t="s">
         <v>24</v>
@@ -5175,40 +5213,40 @@
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="C24" s="25" t="s">
         <v>153</v>
+      </c>
+      <c r="C24" s="26" t="s">
+        <v>154</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>30</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="N24" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="P24" s="7"/>
       <c r="Q24" s="7"/>
@@ -5216,117 +5254,117 @@
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>30</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="N25" s="26" t="s">
         <v>162</v>
       </c>
-      <c r="O25" s="26" t="s">
-        <v>162</v>
-      </c>
-      <c r="P25" s="26"/>
+      <c r="N25" s="27" t="s">
+        <v>163</v>
+      </c>
+      <c r="O25" s="27" t="s">
+        <v>163</v>
+      </c>
+      <c r="P25" s="27"/>
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B26" s="25" t="s">
-        <v>163</v>
+        <v>104</v>
+      </c>
+      <c r="B26" s="26" t="s">
+        <v>164</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>30</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B27" s="25" t="s">
-        <v>168</v>
+        <v>109</v>
+      </c>
+      <c r="B27" s="26" t="s">
+        <v>169</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>30</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="N27" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5362,7 +5400,7 @@
         <v>38</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C33" s="20"/>
       <c r="J33" s="20"/>
@@ -5373,7 +5411,7 @@
         <v>39</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C34" s="20"/>
       <c r="J34" s="20"/>
@@ -5384,7 +5422,7 @@
         <v>40</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5410,7 +5448,7 @@
         <v>45</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5418,7 +5456,7 @@
         <v>45</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5426,7 +5464,7 @@
         <v>45</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5445,10 +5483,10 @@
     </row>
     <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B45" s="20" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C45" s="20"/>
       <c r="J45" s="20"/>
@@ -5456,10 +5494,10 @@
     </row>
     <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B46" s="20" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C46" s="20"/>
       <c r="J46" s="20"/>
@@ -5467,10 +5505,10 @@
     </row>
     <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B47" s="20" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C47" s="20"/>
       <c r="J47" s="20"/>
@@ -5485,78 +5523,78 @@
     </row>
     <row r="49" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="50" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="21" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="51" s="22" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="22" t="s">
+      <c r="A50" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="B51" s="22" t="s">
+    </row>
+    <row r="51" s="23" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="C51" s="23" t="s">
+      <c r="B51" s="23" t="s">
         <v>58</v>
+      </c>
+      <c r="C51" s="24" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="52" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="53" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="54" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="55" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="56" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="57" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5566,224 +5604,224 @@
     </row>
     <row r="58" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="12" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="59" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="D59" s="21"/>
-    </row>
-    <row r="60" s="23" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="B60" s="22" t="s">
+      <c r="A59" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="D59" s="22"/>
+    </row>
+    <row r="60" s="24" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="C60" s="23" t="s">
+      <c r="B60" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="D60" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="E60" s="22" t="s">
+      <c r="C60" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="D60" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="F60" s="22"/>
-    </row>
-    <row r="61" s="27" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E60" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="F60" s="23"/>
+    </row>
+    <row r="61" s="28" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="D61" s="26" t="s">
-        <v>186</v>
+        <v>135</v>
+      </c>
+      <c r="D61" s="27" t="s">
+        <v>187</v>
       </c>
       <c r="E61" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="F61" s="25"/>
+    </row>
+    <row r="62" s="28" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D62" s="27" t="s">
         <v>187</v>
       </c>
-      <c r="F61" s="24"/>
-    </row>
-    <row r="62" s="27" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="7" t="s">
+      <c r="E62" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="B62" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="D62" s="26" t="s">
-        <v>186</v>
-      </c>
-      <c r="E62" s="10" t="s">
+      <c r="F62" s="25"/>
+    </row>
+    <row r="63" s="28" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D63" s="27" t="s">
         <v>187</v>
       </c>
-      <c r="F62" s="24"/>
-    </row>
-    <row r="63" s="27" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="D63" s="26" t="s">
-        <v>186</v>
-      </c>
       <c r="E63" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="F63" s="25"/>
+    </row>
+    <row r="64" s="28" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D64" s="27" t="s">
         <v>187</v>
       </c>
-      <c r="F63" s="24"/>
-    </row>
-    <row r="64" s="27" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="D64" s="26" t="s">
-        <v>186</v>
-      </c>
       <c r="E64" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="F64" s="25"/>
+    </row>
+    <row r="65" s="28" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D65" s="27" t="s">
         <v>187</v>
       </c>
-      <c r="F64" s="24"/>
-    </row>
-    <row r="65" s="27" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="D65" s="26" t="s">
-        <v>186</v>
-      </c>
       <c r="E65" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="F65" s="25"/>
+    </row>
+    <row r="66" s="28" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D66" s="27" t="s">
         <v>187</v>
       </c>
-      <c r="F65" s="24"/>
-    </row>
-    <row r="66" s="27" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D66" s="26" t="s">
-        <v>186</v>
-      </c>
       <c r="E66" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="F66" s="24"/>
+        <v>188</v>
+      </c>
+      <c r="F66" s="25"/>
     </row>
     <row r="67" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="D67" s="26" t="s">
-        <v>186</v>
+        <v>133</v>
+      </c>
+      <c r="D67" s="27" t="s">
+        <v>187</v>
       </c>
       <c r="E67" s="10" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="68" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="D68" s="26" t="s">
-        <v>186</v>
+        <v>192</v>
+      </c>
+      <c r="D68" s="27" t="s">
+        <v>187</v>
       </c>
       <c r="E68" s="10" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="69" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="70" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="12" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="71" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="21" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="72" s="22" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="22" t="s">
+      <c r="A71" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="B72" s="22" t="s">
+    </row>
+    <row r="72" s="23" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="23" t="s">
         <v>75</v>
+      </c>
+      <c r="B72" s="23" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="73" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="74" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="75" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="76" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>

--- a/GEO/C086_Kinkel.GEO_metadata.xlsx
+++ b/GEO/C086_Kinkel.GEO_metadata.xlsx
@@ -2182,7 +2182,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="202">
   <si>
     <t xml:space="preserve"># High-throughput sequencing metadata template. (Version: April 28, 2020)</t>
   </si>
@@ -2259,16 +2259,77 @@
     <t xml:space="preserve">title</t>
   </si>
   <si>
+    <t xml:space="preserve">Epigenetic modifier Smchd1 maintains a normal pool of long-term repopulating hematopoietic stem cells in mice</t>
+  </si>
+  <si>
     <t xml:space="preserve">summary</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">We have used a conditional mouse model to investigate the role of Smchd1 specifically in hematopoiesis. We found that </t>
+    </r>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Smchd1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">-deleted mice have an altered hematopoietic stem and progenitor cell (HSPC) compartment with reduced repopulating capacity in competitive bone marrow transplantation assays and the gradual loss of adult hematopoietic stem cells (HSCs) with age, suggesting a role for Smchd1 in the maintenance of long-term adult HSCs. The phenotype was more pronounced in female </t>
+    </r>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Smchd1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">-deleted mice, which showed a more severe reduction in HSCs with age, as well as depleted numbers of B cell lymphocytes. Gene expression profiling of Smchd1 deficient HSCs and B cells revealed several known and novel Smchd1-sensitive genes, a significant disruption to X-linked gene expression, although this was not widespread upregulation of X-linked genes in female cells. These data show Smchd1 as a new regulator of long-term HSCs whose effects are more profound in females.</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">overall design</t>
   </si>
   <si>
+    <t xml:space="preserve">We have compared Smchd1-deleted LT-HSCs with controls that are heterozygous for the same Smchd1 deletion. Here was have sorted duplicate or triplicate wells of 50-100 Lin-ckit+ Sca1+ Flt3- CD48- CD150+ LT-HSCs from the bone marrow of n = 3 Smchd1-het (control) females, n = 3 Smchd1-del (test) females, n= 3 Smchd1-het males and n = 2 Smchd1-del males.</t>
+  </si>
+  <si>
     <t xml:space="preserve">contributor</t>
   </si>
   <si>
+    <t xml:space="preserve">Sarah Kinkel</t>
+  </si>
+  <si>
     <t xml:space="preserve">Peter,F,Hickey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marnie Blewitt</t>
   </si>
   <si>
     <t xml:space="preserve">supplementary file</t>
@@ -2465,225 +2526,6 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">tag</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">molecule</t>
-  </si>
-  <si>
-    <t xml:space="preserve">description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">processed data file </t>
-  </si>
-  <si>
-    <t xml:space="preserve">raw file</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LCE504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plate number LCE504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mus musculus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">polyA RNA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LCE504.R1.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LCE504.R2.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PROTOCOLS</t>
-  </si>
-  <si>
-    <t xml:space="preserve"># Protocols applicable to only a subset of Samples can be included as additional columns of the SAMPLES section above instead.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">growth protocol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">treatment protocol </t>
-  </si>
-  <si>
-    <t xml:space="preserve">extract protocol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">library construction protocol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">library strategy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RNA-seq</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DATA PROCESSING PIPELINE</t>
-  </si>
-  <si>
-    <t xml:space="preserve"># Data processing steps include base-calling, alignment, filtering, peak-calling, generation of normalized abundance measurements etc…</t>
-  </si>
-  <si>
-    <t xml:space="preserve"># For each step provide a description, as well as software name, version, parameters, if applicable.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">data processing step</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gene and ERCC count matrix generated using scPipe 1.12.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reads were aligned using Rsubread 2.4.2</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">All code used to perform data processing and analysis of the RNA-seq data are available from </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">https://github.com/WEHISCORE/C086_Kinkel</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">genome build</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GRCm38.p6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">processed data files format and content</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSV, gene count matrix, rows represent genes and each column is a well, values corresponding to read counts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSV, ERCC count matrix, rows represent ERCC spike-in sequences and each column is a well, values corresponding to read counts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSV, sample sheet, rows represent a well and columns contain metadata on the sample in the well</t>
-  </si>
-  <si>
-    <t xml:space="preserve"># For each file listed in the "processed data file" columns of the SAMPLES section, provide additional information below.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PROCESSED DATA FILES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">file name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">file type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">file checksum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4e8e8b51be676c6a1f80fcac4d37f6e6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">e0117e4ae7569983699fd7dcd58b2218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7ae573c3d07e09acf38e3e2d690946bb</t>
-  </si>
-  <si>
-    <t xml:space="preserve"># For each file listed in the "raw file" columns of the SAMPLES section above, provide additional information below.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RAW FILES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">instrument model</t>
-  </si>
-  <si>
-    <t xml:space="preserve">single or paired-end</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fastq</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8e22685bb5bd9fe9a8933b095e3f5559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Illumina NextSeq 500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">paired-end </t>
-  </si>
-  <si>
-    <t xml:space="preserve">c948706df025ddc9b92208b7c84a30d1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"># For paired-end experiments, list the 2 (or more) fastq files from the same run. For SOLiD experiments, list the 4 file names (include "file name 3" and "file name 4" columns).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PAIRED-END EXPERIMENTS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">file name 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">file name 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve"># High-throughput sequencing metadata template.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Genome-wide maps of chromatin state in pluripotent and lineage-committed cells.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">We report the application of single-molecule-based sequencing technology for high-throughput profiling of histone modifications in mammalian cells. By obtaining over four billion bases of sequence from chromatin immunoprecipitated DNA, we generated genome-wide chromatin-state maps of mouse embryonic stem cells, neural progenitor cells and embryonic fibroblasts. We find that lysine 4 and lysine 27 trimethylation effectively discriminates genes that are expressed, poised for expression, or stably repressed, and therefore reflect cell state and lineage potential. Lysine 36 trimethylation marks primary coding and non-coding transcripts, facilitating gene annotation. Trimethylation of lysine 9 and lysine 20 is detected at satellite, telomeric and active long-terminal repeats, and can spread into proximal unique sequences. Lysine 4 and lysine 9 trimethylation marks imprinting control regions. Finally, we show that chromatin state can be read in an allele-specific manner by using single nucleotide polymorphisms. This study provides a framework for the application of comprehensive chromatin profiling towards characterization of diverse mammalian cell populations.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Examination of 2 different histone modifications in Neural progenitor cells. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">John,B,Goode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bradley,Smith</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">characteristics: </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
       <t xml:space="preserve">cell type</t>
     </r>
   </si>
@@ -2732,6 +2574,243 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
+      <t xml:space="preserve">genotype</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">molecule</t>
+  </si>
+  <si>
+    <t xml:space="preserve">description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">processed data file </t>
+  </si>
+  <si>
+    <t xml:space="preserve">raw file</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LCE504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plate number LCE504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bone marrow derived LT-HSCs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mus musculus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ter119- Gr1- Mac1- CD3- Ly6G- B220- c-kit+ Sca1+ Flt3- CD48- CD150+ LT-HSCs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C57BL/6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Smchd1[del/+] Vav.Cre[T/+] Smchd1[del/del] Vav.Cre[T/+]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">polyA RNA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LCE504.R1.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LCE504.R2.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROTOCOLS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># Protocols applicable to only a subset of Samples can be included as additional columns of the SAMPLES section above instead.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">growth protocol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">treatment protocol </t>
+  </si>
+  <si>
+    <t xml:space="preserve">extract protocol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bone marrow cells were flushed from femurs and tibiae, depleted for lineage+ cells using magnetic bead depletion, stained with antibodies and subjected to fluorescence activated cell sorting to purify  Ter119- Gr1- Mac1- CD3- Ly6G- B220- c-kit+ Sca1+ Flt3- CD48- CD150+ LT-HSCs. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">library construction protocol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minibulk transcriptome libraries were generated using the CelSeq2 protocol (Hashimshony et al., 2016 Genome Biol.) with the following adaptations: Second strand synthesis was performed using NEBNext Second Strand Synthesis module (NEB, #E6111S) in a final reaction volume of 8 µl and NucleoMag NGS Clean-up and Size select magnetic beads (Macherey-Nagel, 7449970.5) were used for all DNA purification and size selection steps. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">library strategy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RNA-seq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DATA PROCESSING PIPELINE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># Data processing steps include base-calling, alignment, filtering, peak-calling, generation of normalized abundance measurements etc…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># For each step provide a description, as well as software name, version, parameters, if applicable.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">data processing step</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gene and ERCC count matrix generated using scPipe 1.12.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reads were aligned using Rsubread 2.4.2</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">All code used to perform data processing and analysis of the RNA-seq data are available from </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">https://github.com/WEHISCORE/C086_Kinkel</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">genome build</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRCm38.p6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">processed data files format and content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSV, gene count matrix, rows represent genes and each column is a well, values corresponding to read counts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSV, ERCC count matrix, rows represent ERCC spike-in sequences and each column is a well, values corresponding to read counts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSV, sample sheet, rows represent a well and columns contain metadata on the sample in the well</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># For each file listed in the "processed data file" columns of the SAMPLES section, provide additional information below.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROCESSED DATA FILES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">file name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">file type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">file checksum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4e8e8b51be676c6a1f80fcac4d37f6e6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e0117e4ae7569983699fd7dcd58b2218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7ae573c3d07e09acf38e3e2d690946bb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># For each file listed in the "raw file" columns of the SAMPLES section above, provide additional information below.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAW FILES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">instrument model</t>
+  </si>
+  <si>
+    <t xml:space="preserve">single or paired-end</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fastq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8e22685bb5bd9fe9a8933b095e3f5559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Illumina NextSeq 500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">paired-end </t>
+  </si>
+  <si>
+    <t xml:space="preserve">c948706df025ddc9b92208b7c84a30d1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># For paired-end experiments, list the 2 (or more) fastq files from the same run. For SOLiD experiments, list the 4 file names (include "file name 3" and "file name 4" columns).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAIRED-END EXPERIMENTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">file name 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">file name 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># High-throughput sequencing metadata template.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Genome-wide maps of chromatin state in pluripotent and lineage-committed cells.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We report the application of single-molecule-based sequencing technology for high-throughput profiling of histone modifications in mammalian cells. By obtaining over four billion bases of sequence from chromatin immunoprecipitated DNA, we generated genome-wide chromatin-state maps of mouse embryonic stem cells, neural progenitor cells and embryonic fibroblasts. We find that lysine 4 and lysine 27 trimethylation effectively discriminates genes that are expressed, poised for expression, or stably repressed, and therefore reflect cell state and lineage potential. Lysine 36 trimethylation marks primary coding and non-coding transcripts, facilitating gene annotation. Trimethylation of lysine 9 and lysine 20 is detected at satellite, telomeric and active long-terminal repeats, and can spread into proximal unique sequences. Lysine 4 and lysine 9 trimethylation marks imprinting control regions. Finally, we show that chromatin state can be read in an allele-specific manner by using single nucleotide polymorphisms. This study provides a framework for the application of comprehensive chromatin profiling towards characterization of diverse mammalian cell populations.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Examination of 2 different histone modifications in Neural progenitor cells. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">John,B,Goode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bradley,Smith</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">characteristics: </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">ChIP antibody</t>
     </r>
   </si>
@@ -2796,9 +2875,6 @@
     <t xml:space="preserve">ES-derived neural progenitor cells</t>
   </si>
   <si>
-    <t xml:space="preserve">C57BL/6</t>
-  </si>
-  <si>
     <t xml:space="preserve">H3K4me2 (Millipore, 07-030, lot 122116)</t>
   </si>
   <si>
@@ -3018,30 +3094,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">characteristics: </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">genotype</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">Retina WT rep1</t>
   </si>
   <si>
@@ -3169,7 +3221,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="15">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -3221,8 +3273,35 @@
       <charset val="1"/>
     </font>
     <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <i val="true"/>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -3301,7 +3380,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="33">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3338,15 +3417,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3370,6 +3457,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3386,6 +3477,10 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3398,7 +3493,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3414,7 +3509,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3491,6 +3586,5196 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>749160</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>114120</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="0" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11813760" cy="12605040"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>749160</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>114120</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11813760" cy="12605040"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>749160</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>114120</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11813760" cy="12605040"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>749160</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>114120</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11813760" cy="12605040"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>749160</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>114120</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11813760" cy="12605040"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>749160</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>114120</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11813760" cy="12605040"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>749160</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>114120</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11813760" cy="12605040"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>749160</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>114120</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11813760" cy="12605040"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>749160</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>114120</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11813760" cy="12605040"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>749160</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>114120</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11813760" cy="12605040"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>749160</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>114120</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11813760" cy="12605040"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>749160</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>114120</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11813760" cy="12605040"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>749160</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>114120</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11813760" cy="12605040"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>749160</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>114120</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11813760" cy="12605040"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>749160</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>114120</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11813760" cy="12605040"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>749160</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>114120</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11813760" cy="12605040"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>749160</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>114120</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11813760" cy="12605040"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>749160</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>114120</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11813760" cy="12605040"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>749160</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>114120</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11813760" cy="12605040"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>749160</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>114120</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11813760" cy="12605040"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>749160</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>114120</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11813760" cy="12605040"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>749160</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>114120</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11813760" cy="12605040"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>749160</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>114120</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11813760" cy="12605040"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>749160</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>114120</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11813760" cy="12605040"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>749160</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>114120</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11813760" cy="12605040"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>749160</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>114120</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11813760" cy="12605040"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>749160</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>114120</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11813760" cy="12605040"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>749160</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>114120</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11813760" cy="12605040"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>749160</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>114120</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11813760" cy="12605040"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>749160</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>114120</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11813760" cy="12605040"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>749160</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>114120</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11813760" cy="12605040"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>749160</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>114120</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11813760" cy="12605040"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>749160</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>114120</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11813760" cy="12605040"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>749160</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>114120</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11813760" cy="12605040"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>749160</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>114120</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11813760" cy="12605040"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>749160</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>114120</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11813760" cy="12605040"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>749160</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>114120</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11813760" cy="12605040"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>749160</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>114120</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11813760" cy="12605040"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>749160</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>114120</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11813760" cy="12605040"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>749160</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>114120</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11813760" cy="12605040"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>749160</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>114120</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11813760" cy="12605040"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>749160</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>114120</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11813760" cy="12605040"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2006280</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>25200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11907000" cy="12709080"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2006280</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>25200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11907000" cy="12709080"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2006280</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>25200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11907000" cy="12709080"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2006280</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>25200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11907000" cy="12709080"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2006280</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>25200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11907000" cy="12709080"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2006280</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>25200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11907000" cy="12709080"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2006280</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>25200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11907000" cy="12709080"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2006280</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>25200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="49" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11907000" cy="12709080"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2006280</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>25200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="50" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11907000" cy="12709080"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2006280</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>25200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="51" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11907000" cy="12709080"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2006280</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>25200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="52" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11907000" cy="12709080"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2006280</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>25200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="53" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11907000" cy="12709080"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2006280</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>25200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="54" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11907000" cy="12709080"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2006280</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>25200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="55" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11907000" cy="12709080"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2006280</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>25200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="56" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11907000" cy="12709080"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2006280</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>25200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="57" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11907000" cy="12709080"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2006280</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>25200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="58" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11907000" cy="12709080"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2006280</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>25200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="59" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11907000" cy="12709080"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2006280</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>25200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="60" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11907000" cy="12709080"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2006280</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>25200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="61" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11907000" cy="12709080"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2006280</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>25200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="62" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11907000" cy="12709080"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2006280</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>25200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="63" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11907000" cy="12709080"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2006280</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>25200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="64" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11907000" cy="12709080"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2006280</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>25200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="65" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11907000" cy="12709080"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2006280</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>25200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="66" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11907000" cy="12709080"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2006280</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>25200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="67" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11907000" cy="12709080"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2006280</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>25200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="68" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11907000" cy="12709080"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2006280</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>25200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="69" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11907000" cy="12709080"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2006280</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>25200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="70" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11907000" cy="12709080"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2006280</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>25200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="71" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11907000" cy="12709080"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2006280</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>25200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="72" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11907000" cy="12709080"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2006280</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>25200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="73" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11907000" cy="12709080"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2006280</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>25200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="74" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11907000" cy="12709080"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2006280</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>25200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="75" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11907000" cy="12709080"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2006280</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>25200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="76" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11907000" cy="12709080"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2006280</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>25200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="77" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11907000" cy="12709080"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2006280</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>25200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="78" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11907000" cy="12709080"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>25200</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>151920</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="79" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11761200" cy="12699360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>25200</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>151920</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="80" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11761200" cy="12699360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>25200</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>151920</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="81" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11761200" cy="12699360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>25200</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>151920</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="82" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11761200" cy="12699360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>25200</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>151920</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="83" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11761200" cy="12699360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>25200</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>151920</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="84" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11761200" cy="12699360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>25200</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>151920</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="85" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11761200" cy="12699360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>25200</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>151920</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="86" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11761200" cy="12699360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>25200</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>151920</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="87" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11761200" cy="12699360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>25200</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>151920</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="88" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11761200" cy="12699360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>25200</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>151920</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="89" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11761200" cy="12699360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>25200</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>151920</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="90" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11761200" cy="12699360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>25200</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>151920</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="91" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11761200" cy="12699360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>25200</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>151920</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="92" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11761200" cy="12699360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>25200</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>151920</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="93" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11761200" cy="12699360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>25200</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>151920</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="94" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11761200" cy="12699360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>25200</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>151920</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="95" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11761200" cy="12699360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>25200</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>151920</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="96" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11761200" cy="12699360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>25200</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>151920</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="97" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11761200" cy="12699360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>25200</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>151920</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="98" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11761200" cy="12699360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>25200</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>151920</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="99" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11761200" cy="12699360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>25200</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>151920</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="100" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11761200" cy="12699360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>25200</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>151920</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="101" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11761200" cy="12699360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>25200</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>151920</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="102" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11761200" cy="12699360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>25200</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>151920</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="103" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11761200" cy="12699360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>25200</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>151920</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="104" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11761200" cy="12699360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>25200</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>151920</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="105" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11761200" cy="12699360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>25200</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>151920</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="106" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11761200" cy="12699360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>25200</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>151920</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="107" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11761200" cy="12699360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>25200</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>151920</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="108" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11761200" cy="12699360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>25200</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>151920</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="109" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11761200" cy="12699360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>25200</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>151920</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="110" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11761200" cy="12699360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>25200</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>151920</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="111" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11761200" cy="12699360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>25200</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>151920</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="112" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11761200" cy="12699360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>25200</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>151920</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="113" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11761200" cy="12699360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>25200</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>151920</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="114" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11761200" cy="12699360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
@@ -3499,22 +8784,22 @@
   </sheetPr>
   <dimension ref="A1:L71"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B47" activeCellId="0" sqref="B47"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B48" activeCellId="0" sqref="B48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="42.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="2" style="1" width="28.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="42.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="2" style="1" width="28.66"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="2" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" s="5" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -3523,7 +8808,7 @@
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
     </row>
-    <row r="3" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" s="5" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -3532,7 +8817,7 @@
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
     </row>
-    <row r="4" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" s="5" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -3541,7 +8826,7 @@
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
     </row>
-    <row r="5" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" s="5" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -3550,14 +8835,14 @@
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" s="5" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
     </row>
-    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
         <v>5</v>
       </c>
@@ -3566,7 +8851,7 @@
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
     </row>
-    <row r="8" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" s="5" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
@@ -3575,540 +8860,563 @@
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
     </row>
-    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
+      <c r="B9" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
     </row>
     <row r="10" customFormat="false" ht="37.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
+        <v>9</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
     </row>
     <row r="11" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-    </row>
-    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>11</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+    </row>
+    <row r="12" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="9"/>
+        <v>13</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="10"/>
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="9"/>
+    <row r="13" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="10"/>
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
     </row>
-    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="9"/>
+    <row r="14" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="10"/>
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
     </row>
-    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="9"/>
+    <row r="15" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="12"/>
+      <c r="C15" s="10"/>
       <c r="J15" s="7"/>
       <c r="K15" s="7"/>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="9"/>
+    <row r="16" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="10"/>
       <c r="J16" s="7"/>
       <c r="K16" s="7"/>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="9"/>
+    <row r="17" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="10"/>
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" s="9"/>
+    <row r="18" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="10"/>
       <c r="J18" s="7"/>
       <c r="K18" s="7"/>
     </row>
-    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="11"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="9"/>
+    <row r="19" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="13"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="10"/>
       <c r="J19" s="7"/>
       <c r="K19" s="7"/>
     </row>
-    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B20" s="7"/>
-      <c r="C20" s="9"/>
+      <c r="C20" s="10"/>
       <c r="J20" s="7"/>
       <c r="K20" s="7"/>
     </row>
-    <row r="21" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="14"/>
-    </row>
-    <row r="24" s="15" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B24" s="15" t="s">
+    <row r="21" s="5" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" s="5" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" s="5" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
+    </row>
+    <row r="24" s="17" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C24" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="D24" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="F24" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="G24" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="H24" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="I24" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="J24" s="15" t="s">
+      <c r="C24" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="K24" s="15" t="s">
+      <c r="D24" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="L24" s="15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E24" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="F24" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="G24" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="I24" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="J24" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="K24" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="L24" s="17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>29</v>
+        <v>36</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17" t="s">
-        <v>31</v>
+        <v>38</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F25" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="G25" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="H25" s="20" t="s">
+        <v>42</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
-    </row>
-    <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="18"/>
-    </row>
-    <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="18"/>
-    </row>
-    <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="18"/>
-    </row>
-    <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="18"/>
-    </row>
-    <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="18"/>
-    </row>
-    <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="18"/>
-    </row>
-    <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="19" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="35" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="20"/>
+    </row>
+    <row r="27" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="20"/>
+    </row>
+    <row r="28" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="21"/>
+    </row>
+    <row r="29" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="21"/>
+    </row>
+    <row r="30" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="21"/>
+    </row>
+    <row r="31" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="21"/>
+    </row>
+    <row r="32" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="21"/>
+    </row>
+    <row r="33" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="21"/>
+    </row>
+    <row r="34" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="35" s="5" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B36" s="20"/>
-      <c r="C36" s="20"/>
-      <c r="J36" s="20"/>
-      <c r="K36" s="20"/>
-    </row>
-    <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="B37" s="20"/>
-      <c r="C37" s="20"/>
-      <c r="J37" s="20"/>
-      <c r="K37" s="20"/>
-    </row>
-    <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B36" s="23"/>
+      <c r="C36" s="23"/>
+      <c r="J36" s="23"/>
+      <c r="K36" s="23"/>
+    </row>
+    <row r="37" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B37" s="23"/>
+      <c r="C37" s="23"/>
+      <c r="J37" s="23"/>
+      <c r="K37" s="23"/>
+    </row>
+    <row r="38" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B38" s="20"/>
-      <c r="C38" s="20"/>
-      <c r="J38" s="20"/>
-      <c r="K38" s="20"/>
-    </row>
-    <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>49</v>
+      </c>
+      <c r="B38" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="C38" s="23"/>
+      <c r="J38" s="23"/>
+      <c r="K38" s="23"/>
+    </row>
+    <row r="39" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B39" s="20"/>
-      <c r="C39" s="20"/>
-      <c r="J39" s="20"/>
-      <c r="K39" s="20"/>
-    </row>
-    <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>51</v>
+      </c>
+      <c r="B39" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="C39" s="23"/>
+      <c r="J39" s="23"/>
+      <c r="K39" s="23"/>
+    </row>
+    <row r="40" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B40" s="20" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>53</v>
+      </c>
+      <c r="B40" s="23" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="8"/>
     </row>
-    <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="43" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="12" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="44" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="12" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="43" s="14" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="44" s="14" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="8" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="8" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="46.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B47" s="21" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>58</v>
+      </c>
+      <c r="B47" s="25" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B49" s="20"/>
-      <c r="C49" s="20"/>
-      <c r="J49" s="20"/>
-      <c r="K49" s="20"/>
-    </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>58</v>
+      </c>
+      <c r="B49" s="23"/>
+      <c r="C49" s="23"/>
+      <c r="J49" s="23"/>
+      <c r="K49" s="23"/>
+    </row>
+    <row r="50" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="B50" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="C50" s="20"/>
-      <c r="J50" s="20"/>
-      <c r="K50" s="20"/>
-    </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>62</v>
+      </c>
+      <c r="B50" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="C50" s="23"/>
+      <c r="J50" s="23"/>
+      <c r="K50" s="23"/>
+    </row>
+    <row r="51" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B51" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="C51" s="20"/>
-      <c r="J51" s="20"/>
-      <c r="K51" s="20"/>
-    </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>64</v>
+      </c>
+      <c r="B51" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="C51" s="23"/>
+      <c r="J51" s="23"/>
+      <c r="K51" s="23"/>
+    </row>
+    <row r="52" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B52" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="C52" s="20"/>
-      <c r="J52" s="20"/>
-      <c r="K52" s="20"/>
-    </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>64</v>
+      </c>
+      <c r="B52" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="C52" s="23"/>
+      <c r="J52" s="23"/>
+      <c r="K52" s="23"/>
+    </row>
+    <row r="53" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B53" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="C53" s="20"/>
-      <c r="J53" s="20"/>
-      <c r="K53" s="20"/>
-    </row>
-    <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>64</v>
+      </c>
+      <c r="B53" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="C53" s="23"/>
+      <c r="J53" s="23"/>
+      <c r="K53" s="23"/>
+    </row>
+    <row r="54" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="8"/>
-      <c r="B54" s="10"/>
-      <c r="C54" s="20"/>
-      <c r="J54" s="20"/>
-      <c r="K54" s="20"/>
-    </row>
-    <row r="55" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="12" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="56" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="22" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="57" s="23" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="B57" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="C57" s="24" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="58" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B58" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="C58" s="10" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="59" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B59" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="C59" s="10" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="60" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B60" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="C60" s="10" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="61" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B54" s="12"/>
+      <c r="C54" s="23"/>
+      <c r="J54" s="23"/>
+      <c r="K54" s="23"/>
+    </row>
+    <row r="55" s="14" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="56" s="12" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="26" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="57" s="27" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="B57" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="C57" s="28" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="58" s="12" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B58" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="C58" s="12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="59" s="12" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B59" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="C59" s="12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="60" s="12" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B60" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="C60" s="12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="61" s="12" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1"/>
     </row>
-    <row r="62" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="12" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="63" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="D63" s="22"/>
-    </row>
-    <row r="64" s="24" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="B64" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="C64" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="D64" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="E64" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="F64" s="23"/>
-    </row>
-    <row r="65" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="B65" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="C65" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="D65" s="10" t="s">
+    <row r="62" s="14" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="14" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="63" s="12" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="D63" s="26"/>
+    </row>
+    <row r="64" s="28" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="E65" s="10" t="s">
+      <c r="B64" s="27" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="66" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="B66" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="C66" s="10" t="s">
+      <c r="C64" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="D66" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="E66" s="10" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="67" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="68" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="12" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="69" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="22" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="70" s="23" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="B70" s="23" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="B71" s="10" t="s">
-        <v>33</v>
+      <c r="D64" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="E64" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="F64" s="27"/>
+    </row>
+    <row r="65" s="12" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B65" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C65" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="D65" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="E65" s="12" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="66" s="12" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B66" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C66" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="D66" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="E66" s="12" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="67" s="12" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="68" s="14" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="14" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="69" s="12" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="26" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="70" s="27" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="B70" s="27" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B71" s="12" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -4125,7 +9433,8 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
-  <legacyDrawing r:id="rId3"/>
+  <drawing r:id="rId3"/>
+  <legacyDrawing r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -4141,19 +9450,19 @@
       <selection pane="topLeft" activeCell="A21" activeCellId="0" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="42.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="40.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="1" width="28.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="42.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="40.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="1" width="28.66"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="2" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="2" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" s="5" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -4163,7 +9472,7 @@
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
     </row>
-    <row r="3" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" s="5" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -4173,7 +9482,7 @@
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
     </row>
-    <row r="4" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" s="5" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -4183,7 +9492,7 @@
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
     </row>
-    <row r="5" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" s="5" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -4193,7 +9502,7 @@
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
     </row>
-    <row r="6" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" s="5" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -4201,7 +9510,7 @@
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
     </row>
-    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
         <v>5</v>
       </c>
@@ -4211,7 +9520,7 @@
       <c r="K7" s="7"/>
       <c r="L7" s="7"/>
     </row>
-    <row r="8" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" s="5" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
@@ -4221,709 +9530,709 @@
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
     </row>
-    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="C9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
+      <c r="B9" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="C9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
     </row>
     <row r="10" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="C10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-    </row>
-    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>9</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="C10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+    </row>
+    <row r="11" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="C11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-    </row>
-    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>11</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="C11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+    </row>
+    <row r="12" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="C12" s="9"/>
+        <v>13</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="C12" s="10"/>
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
     </row>
-    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="C13" s="9"/>
+        <v>13</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="C13" s="10"/>
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
       <c r="L13" s="7"/>
     </row>
-    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="9"/>
+    <row r="14" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="12"/>
+      <c r="C14" s="10"/>
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
       <c r="L14" s="7"/>
     </row>
-    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="11"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="9"/>
+    <row r="15" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="13"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="10"/>
       <c r="J15" s="7"/>
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
     </row>
-    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B16" s="7"/>
-      <c r="C16" s="9"/>
+      <c r="C16" s="10"/>
       <c r="J16" s="7"/>
       <c r="K16" s="7"/>
       <c r="L16" s="7"/>
     </row>
-    <row r="17" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
-    </row>
-    <row r="20" s="15" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" s="15" t="s">
+    <row r="17" s="5" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" s="5" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" s="5" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+    </row>
+    <row r="20" s="17" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="D20" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E20" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="F20" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="G20" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="H20" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="I20" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="J20" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="K20" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="L20" s="15" t="s">
+      <c r="C20" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="M20" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="N20" s="15" t="s">
+      <c r="D20" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="O20" s="15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E20" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="F20" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="G20" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="H20" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="I20" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="J20" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="K20" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="L20" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="M20" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="N20" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="O20" s="17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="F21" s="17" t="s">
-        <v>92</v>
+        <v>102</v>
+      </c>
+      <c r="F21" s="20" t="s">
+        <v>40</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="N21" s="7" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="O21" s="7"/>
     </row>
-    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="F22" s="17" t="s">
-        <v>92</v>
+        <v>102</v>
+      </c>
+      <c r="F22" s="20" t="s">
+        <v>40</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="L22" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="N22" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="O22" s="7"/>
+    </row>
+    <row r="23" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="M22" s="1" t="s">
+      <c r="D23" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="N22" s="7" t="s">
+      <c r="F23" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="N23" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="O23" s="7"/>
+    </row>
+    <row r="24" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G24" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="O22" s="7"/>
-    </row>
-    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B23" s="1" t="s">
+      <c r="H24" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="J24" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="F23" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="G23" s="1" t="s">
+      <c r="L24" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="21"/>
+    </row>
+    <row r="26" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" s="5" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B28" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="C28" s="23"/>
+      <c r="J28" s="23"/>
+      <c r="K28" s="23"/>
+      <c r="L28" s="23"/>
+    </row>
+    <row r="29" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B29" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="C29" s="23"/>
+      <c r="J29" s="23"/>
+      <c r="K29" s="23"/>
+      <c r="L29" s="23"/>
+    </row>
+    <row r="30" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B30" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="C30" s="23"/>
+      <c r="J30" s="23"/>
+      <c r="K30" s="23"/>
+      <c r="L30" s="23"/>
+    </row>
+    <row r="31" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B31" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="C31" s="23"/>
+      <c r="J31" s="23"/>
+      <c r="K31" s="23"/>
+      <c r="L31" s="23"/>
+    </row>
+    <row r="32" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="8"/>
+    </row>
+    <row r="34" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35" s="14" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="36" s="14" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B41" s="23"/>
+      <c r="C41" s="23"/>
+      <c r="J41" s="23"/>
+      <c r="K41" s="23"/>
+      <c r="L41" s="23"/>
+    </row>
+    <row r="42" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B42" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="C42" s="23"/>
+      <c r="J42" s="23"/>
+      <c r="K42" s="23"/>
+      <c r="L42" s="23"/>
+    </row>
+    <row r="43" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B43" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="C43" s="23"/>
+      <c r="J43" s="23"/>
+      <c r="K43" s="23"/>
+      <c r="L43" s="23"/>
+    </row>
+    <row r="44" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B44" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="C44" s="23"/>
+      <c r="J44" s="23"/>
+      <c r="K44" s="23"/>
+      <c r="L44" s="23"/>
+    </row>
+    <row r="45" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="8"/>
+      <c r="B45" s="12"/>
+      <c r="C45" s="23"/>
+      <c r="J45" s="23"/>
+      <c r="K45" s="23"/>
+      <c r="L45" s="23"/>
+    </row>
+    <row r="46" s="14" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="47" s="12" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="26" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="48" s="27" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="B48" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="C48" s="28" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="49" s="29" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="H23" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="M23" s="1" t="s">
+      <c r="B49" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="50" s="29" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B50" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="51" s="12" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B51" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="52" s="12" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="N23" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="O23" s="7"/>
-    </row>
-    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="L24" s="1" t="s">
+      <c r="B52" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="53" s="12" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="M24" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="N24" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="18"/>
-    </row>
-    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="19" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="27" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B28" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="C28" s="20"/>
-      <c r="J28" s="20"/>
-      <c r="K28" s="20"/>
-      <c r="L28" s="20"/>
-    </row>
-    <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="B29" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="C29" s="20"/>
-      <c r="J29" s="20"/>
-      <c r="K29" s="20"/>
-      <c r="L29" s="20"/>
-    </row>
-    <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B30" s="20" t="s">
+      <c r="B53" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="54" s="12" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C30" s="20"/>
-      <c r="J30" s="20"/>
-      <c r="K30" s="20"/>
-      <c r="L30" s="20"/>
-    </row>
-    <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B31" s="20" t="s">
-        <v>118</v>
-      </c>
-      <c r="C31" s="20"/>
-      <c r="J31" s="20"/>
-      <c r="K31" s="20"/>
-      <c r="L31" s="20"/>
-    </row>
-    <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="8"/>
-    </row>
-    <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="35" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="12" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="36" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="12" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B40" s="1" t="s">
+      <c r="B54" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="55" s="12" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="1" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B41" s="20"/>
-      <c r="C41" s="20"/>
-      <c r="J41" s="20"/>
-      <c r="K41" s="20"/>
-      <c r="L41" s="20"/>
-    </row>
-    <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="B42" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="C42" s="20"/>
-      <c r="J42" s="20"/>
-      <c r="K42" s="20"/>
-      <c r="L42" s="20"/>
-    </row>
-    <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B43" s="20" t="s">
-        <v>125</v>
-      </c>
-      <c r="C43" s="20"/>
-      <c r="J43" s="20"/>
-      <c r="K43" s="20"/>
-      <c r="L43" s="20"/>
-    </row>
-    <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B44" s="20" t="s">
-        <v>126</v>
-      </c>
-      <c r="C44" s="20"/>
-      <c r="J44" s="20"/>
-      <c r="K44" s="20"/>
-      <c r="L44" s="20"/>
-    </row>
-    <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="8"/>
-      <c r="B45" s="10"/>
-      <c r="C45" s="20"/>
-      <c r="J45" s="20"/>
-      <c r="K45" s="20"/>
-      <c r="L45" s="20"/>
-    </row>
-    <row r="46" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="12" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="47" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="22" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="48" s="23" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="B48" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="C48" s="24" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="49" s="25" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B49" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="50" s="25" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B50" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="51" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B51" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="52" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B52" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="53" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B53" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="54" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B54" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="55" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B55" s="10" t="s">
-        <v>131</v>
+      <c r="B55" s="12" t="s">
+        <v>141</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="56" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="56" s="12" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
     </row>
-    <row r="57" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" s="12" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1"/>
     </row>
-    <row r="58" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="12" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="59" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="D59" s="22"/>
-    </row>
-    <row r="60" s="24" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="B60" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="C60" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="D60" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="E60" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="F60" s="23"/>
-    </row>
-    <row r="61" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" s="14" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="14" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="59" s="12" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="D59" s="26"/>
+    </row>
+    <row r="60" s="28" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="B60" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="C60" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="D60" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="E60" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="F60" s="27"/>
+    </row>
+    <row r="61" s="12" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="7" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E61" s="10" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="62" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>146</v>
+      </c>
+      <c r="E61" s="12" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="62" s="12" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="7" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E62" s="10" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="63" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>146</v>
+      </c>
+      <c r="E62" s="12" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="63" s="12" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="7" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E63" s="10" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="64" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="10" t="s">
-        <v>114</v>
+        <v>146</v>
+      </c>
+      <c r="E63" s="12" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="64" s="12" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="12" t="s">
+        <v>124</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E64" s="10" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="65" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="66" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="67" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="12" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="68" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="22" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="69" s="23" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="B69" s="23" t="s">
-        <v>76</v>
+        <v>146</v>
+      </c>
+      <c r="E64" s="12" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="65" s="12" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="66" s="12" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="67" s="14" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="14" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="68" s="12" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="26" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="69" s="27" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="B69" s="27" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -4937,7 +10246,8 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
-  <legacyDrawing r:id="rId2"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -4953,19 +10263,19 @@
       <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="37.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="3" style="1" width="22.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="16" style="1" width="37.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="37.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="3" style="1" width="22.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="16" style="1" width="37.5"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="2" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="2" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" s="5" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -4974,7 +10284,7 @@
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
     </row>
-    <row r="3" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" s="5" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -4983,7 +10293,7 @@
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
     </row>
-    <row r="4" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" s="5" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -4992,7 +10302,7 @@
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
     </row>
-    <row r="5" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" s="5" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -5001,14 +10311,14 @@
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" s="5" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
     </row>
-    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
         <v>5</v>
       </c>
@@ -5017,7 +10327,7 @@
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
     </row>
-    <row r="8" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" s="5" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
@@ -5026,802 +10336,802 @@
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
     </row>
-    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-    </row>
-    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>151</v>
+      </c>
+      <c r="C9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+    </row>
+    <row r="10" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-    </row>
-    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>152</v>
+      </c>
+      <c r="C10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+    </row>
+    <row r="11" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-    </row>
-    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>153</v>
+      </c>
+      <c r="C11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+    </row>
+    <row r="12" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="C12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-    </row>
-    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>154</v>
+      </c>
+      <c r="C12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+    </row>
+    <row r="13" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-    </row>
-    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>155</v>
+      </c>
+      <c r="C13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+    </row>
+    <row r="14" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="8" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="C14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-    </row>
-    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>156</v>
+      </c>
+      <c r="C14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+    </row>
+    <row r="15" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="C15" s="9"/>
+        <v>13</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="C15" s="10"/>
       <c r="J15" s="7"/>
       <c r="K15" s="7"/>
     </row>
-    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="C16" s="9"/>
+        <v>13</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="C16" s="10"/>
       <c r="J16" s="7"/>
       <c r="K16" s="7"/>
     </row>
-    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="C17" s="9"/>
+    <row r="17" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="C17" s="10"/>
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
     </row>
-    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="11"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="9"/>
+    <row r="18" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="13"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="10"/>
       <c r="J18" s="7"/>
       <c r="K18" s="7"/>
     </row>
-    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B19" s="7"/>
-      <c r="C19" s="9"/>
+      <c r="C19" s="10"/>
       <c r="J19" s="7"/>
       <c r="K19" s="7"/>
     </row>
-    <row r="20" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
-    </row>
-    <row r="23" s="15" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B23" s="15" t="s">
+    <row r="20" s="5" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" s="5" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" s="5" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+    </row>
+    <row r="23" s="17" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="D23" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E23" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="F23" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="G23" s="15" t="s">
-        <v>151</v>
-      </c>
-      <c r="H23" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="I23" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="J23" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="K23" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="L23" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="M23" s="15" t="s">
+      <c r="C23" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="N23" s="15" t="s">
+      <c r="D23" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="O23" s="15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E23" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="F23" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="G23" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="H23" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="I23" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="J23" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="K23" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="L23" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="M23" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="N23" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="O23" s="17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C24" s="26" t="s">
-        <v>154</v>
+        <v>162</v>
+      </c>
+      <c r="C24" s="30" t="s">
+        <v>163</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="N24" s="7" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="P24" s="7"/>
       <c r="Q24" s="7"/>
       <c r="R24" s="7"/>
     </row>
-    <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="N25" s="27" t="s">
+        <v>171</v>
+      </c>
+      <c r="N25" s="31" t="s">
+        <v>172</v>
+      </c>
+      <c r="O25" s="31" t="s">
+        <v>172</v>
+      </c>
+      <c r="P25" s="31"/>
+    </row>
+    <row r="26" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B26" s="30" t="s">
+        <v>173</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="O25" s="27" t="s">
+      <c r="D26" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B27" s="30" t="s">
+        <v>178</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="P25" s="27"/>
-    </row>
-    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B26" s="26" t="s">
+      <c r="D27" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F27" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="H26" s="1" t="s">
+      <c r="G27" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="K26" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="M26" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="N26" s="1" t="s">
+      <c r="H27" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="K27" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="O26" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B27" s="26" t="s">
-        <v>169</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="K27" s="1" t="s">
-        <v>158</v>
-      </c>
       <c r="M27" s="1" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="N27" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" s="5" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B31" s="12"/>
+      <c r="C31" s="23"/>
+      <c r="J31" s="23"/>
+      <c r="K31" s="23"/>
+    </row>
+    <row r="32" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B32" s="23"/>
+      <c r="C32" s="23"/>
+      <c r="J32" s="23"/>
+      <c r="K32" s="23"/>
+    </row>
+    <row r="33" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B33" s="23" t="s">
+        <v>182</v>
+      </c>
+      <c r="C33" s="23"/>
+      <c r="J33" s="23"/>
+      <c r="K33" s="23"/>
+    </row>
+    <row r="34" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="C34" s="23"/>
+      <c r="J34" s="23"/>
+      <c r="K34" s="23"/>
+    </row>
+    <row r="35" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="8"/>
+    </row>
+    <row r="37" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="38" s="14" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="39" s="14" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B44" s="23"/>
+      <c r="C44" s="23"/>
+      <c r="J44" s="23"/>
+      <c r="K44" s="23"/>
+    </row>
+    <row r="45" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B45" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="C45" s="23"/>
+      <c r="J45" s="23"/>
+      <c r="K45" s="23"/>
+    </row>
+    <row r="46" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B46" s="23" t="s">
+        <v>188</v>
+      </c>
+      <c r="C46" s="23"/>
+      <c r="J46" s="23"/>
+      <c r="K46" s="23"/>
+    </row>
+    <row r="47" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B47" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="C47" s="23"/>
+      <c r="J47" s="23"/>
+      <c r="K47" s="23"/>
+    </row>
+    <row r="48" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="8"/>
+      <c r="B48" s="12"/>
+      <c r="C48" s="23"/>
+      <c r="J48" s="23"/>
+      <c r="K48" s="23"/>
+    </row>
+    <row r="49" s="14" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="50" s="12" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="26" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="51" s="27" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="B51" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="C51" s="28" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="52" s="12" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="53" s="12" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="O27" s="7" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="19" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="30" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" s="10"/>
-      <c r="C31" s="20"/>
-      <c r="J31" s="20"/>
-      <c r="K31" s="20"/>
-    </row>
-    <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" s="20"/>
-      <c r="C32" s="20"/>
-      <c r="J32" s="20"/>
-      <c r="K32" s="20"/>
-    </row>
-    <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B33" s="20" t="s">
-        <v>173</v>
-      </c>
-      <c r="C33" s="20"/>
-      <c r="J33" s="20"/>
-      <c r="K33" s="20"/>
-    </row>
-    <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="C34" s="20"/>
-      <c r="J34" s="20"/>
-      <c r="K34" s="20"/>
-    </row>
-    <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B35" s="1" t="s">
+      <c r="B53" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="54" s="12" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="1" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="8"/>
-    </row>
-    <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="38" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="12" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="39" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="12" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B44" s="20"/>
-      <c r="C44" s="20"/>
-      <c r="J44" s="20"/>
-      <c r="K44" s="20"/>
-    </row>
-    <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="B45" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="C45" s="20"/>
-      <c r="J45" s="20"/>
-      <c r="K45" s="20"/>
-    </row>
-    <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B46" s="20" t="s">
+      <c r="B54" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="55" s="12" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="C46" s="20"/>
-      <c r="J46" s="20"/>
-      <c r="K46" s="20"/>
-    </row>
-    <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B47" s="20" t="s">
-        <v>180</v>
-      </c>
-      <c r="C47" s="20"/>
-      <c r="J47" s="20"/>
-      <c r="K47" s="20"/>
-    </row>
-    <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="8"/>
-      <c r="B48" s="10"/>
-      <c r="C48" s="20"/>
-      <c r="J48" s="20"/>
-      <c r="K48" s="20"/>
-    </row>
-    <row r="49" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="12" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="50" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="22" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="51" s="23" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="B51" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="C51" s="24" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="52" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="53" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="54" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="55" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="1" t="s">
-        <v>170</v>
-      </c>
       <c r="B55" s="1" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="56" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="56" s="12" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="57" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="57" s="12" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
     </row>
-    <row r="58" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="12" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="59" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="D59" s="22"/>
-    </row>
-    <row r="60" s="24" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="B60" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="C60" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="D60" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="E60" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="F60" s="23"/>
-    </row>
-    <row r="61" s="28" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" s="14" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="14" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="59" s="12" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="D59" s="26"/>
+    </row>
+    <row r="60" s="28" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="B60" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="C60" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="D60" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="E60" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="F60" s="27"/>
+    </row>
+    <row r="61" s="32" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="7" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D61" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="E61" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="F61" s="25"/>
-    </row>
-    <row r="62" s="28" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>145</v>
+      </c>
+      <c r="D61" s="31" t="s">
+        <v>196</v>
+      </c>
+      <c r="E61" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="F61" s="29"/>
+    </row>
+    <row r="62" s="32" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="7" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="D62" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="E62" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="F62" s="25"/>
-    </row>
-    <row r="63" s="28" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>148</v>
+      </c>
+      <c r="D62" s="31" t="s">
+        <v>196</v>
+      </c>
+      <c r="E62" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="F62" s="29"/>
+    </row>
+    <row r="63" s="32" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="7" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D63" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="E63" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="F63" s="25"/>
-    </row>
-    <row r="64" s="28" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>149</v>
+      </c>
+      <c r="D63" s="31" t="s">
+        <v>196</v>
+      </c>
+      <c r="E63" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="F63" s="29"/>
+    </row>
+    <row r="64" s="32" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="7" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="D64" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="E64" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="F64" s="25"/>
-    </row>
-    <row r="65" s="28" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>192</v>
+      </c>
+      <c r="D64" s="31" t="s">
+        <v>196</v>
+      </c>
+      <c r="E64" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="F64" s="29"/>
+    </row>
+    <row r="65" s="32" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="7" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="D65" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="E65" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="F65" s="25"/>
-    </row>
-    <row r="66" s="28" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>200</v>
+      </c>
+      <c r="D65" s="31" t="s">
+        <v>196</v>
+      </c>
+      <c r="E65" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="F65" s="29"/>
+    </row>
+    <row r="66" s="32" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="7" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="D66" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="E66" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="F66" s="25"/>
-    </row>
-    <row r="67" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>142</v>
+      </c>
+      <c r="D66" s="31" t="s">
+        <v>196</v>
+      </c>
+      <c r="E66" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="F66" s="29"/>
+    </row>
+    <row r="67" s="12" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="7" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="D67" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="E67" s="10" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="68" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>143</v>
+      </c>
+      <c r="D67" s="31" t="s">
+        <v>196</v>
+      </c>
+      <c r="E67" s="12" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="68" s="12" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="D68" s="31" t="s">
+        <v>196</v>
+      </c>
+      <c r="E68" s="12" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="69" s="12" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="70" s="14" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="14" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="71" s="12" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="26" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="72" s="27" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="B72" s="27" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="73" s="12" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="74" s="12" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="B68" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="D68" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="E68" s="10" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="69" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="70" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="12" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="71" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="22" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="72" s="23" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="B72" s="23" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="73" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="B73" s="7" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="74" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="7" t="s">
-        <v>163</v>
-      </c>
       <c r="B74" s="7" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="75" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="75" s="12" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="7" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="76" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="76" s="12" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="7" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -5835,6 +11145,7 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
-  <legacyDrawing r:id="rId2"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>